--- a/CP Program Leaders.xlsx
+++ b/CP Program Leaders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DavidW/Dropbox (SmartOrg)/Projects/couchDB_users/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78FE90-27B9-3B41-9EB3-56062B3E3BBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD58814-3A53-4447-BFE2-2C36459B5E63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55380" yWindow="460" windowWidth="25600" windowHeight="21140" xr2:uid="{586DCFF5-0EB4-43C0-8850-C0A6B92B9F5C}"/>
+    <workbookView xWindow="54400" yWindow="460" windowWidth="25600" windowHeight="19640" xr2:uid="{586DCFF5-0EB4-43C0-8850-C0A6B92B9F5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,9 +399,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA8ADB5-5FBB-44AB-9F27-507B0CAB33CC}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -899,10 +902,10 @@
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -919,10 +922,10 @@
       <c r="B10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
